--- a/medicine/Mort/Décès_en_1914/Décès_en_1914.xlsx
+++ b/medicine/Mort/Décès_en_1914/Décès_en_1914.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1914</t>
+          <t>Décès_en_1914</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -508,7 +520,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1914</t>
+          <t>Décès_en_1914</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -528,11 +540,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Date inconnue
-Élisa Koch, peintre et pastelliste italienne (° 1833).
-Henri Pépin, coureur cycliste français (° 18 novembre 1884).
-Janvier
-2 janvier : Euphémie Muraton, peintre française (° 11 avril 1836).
+          <t>Date inconnue</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Élisa Koch, peintre et pastelliste italienne (° 1833).
+Henri Pépin, coureur cycliste français (° 18 novembre 1884).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1914</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1914</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier : Euphémie Muraton, peintre française (° 11 avril 1836).
 3 janvier : Raoul Pugno, compositeur et pianiste français (° 23 juin 1852).
 5 janvier : Siegfried Langgaard, compositeur, pianiste, professeur et philosophe danois (° 13 juillet 1852).
 10 janvier :Léonie Aviat, fondatrice des Oblates de Saint François de Sales (canonisée en 2001) (°16 septembre 1844)
@@ -544,34 +595,204 @@
 Salvador Martínez Cubells, peintre et restaurateur de peintures espagnol (° 9 novembre 1845).
 24 janvier : Adolf Eberle, peintre allemand (° 14 janvier 1843).
 26 janvier : Xavier Neujean, homme politique belge (° 23 janvier 1840).
-31 janvier : René Princeteau, peintre animalier français (° 18 juillet 1843).
-Février
-19 février : Oleksa Novakivskyi, peintre russe (° 1er février 1842).
+31 janvier : René Princeteau, peintre animalier français (° 18 juillet 1843).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1914</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1914</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>19 février : Oleksa Novakivskyi, peintre russe (° 1er février 1842).
 20 février : Paul Chevré, sculpteur français, survivant du naufrage du Titanic (° 5 juillet 1866).
 23 février : Alain de Rohan, aristocrate et homme politique austro-hongrois d'origine française (° 8 janvier 1853).
-28 février : Salvador Cisneros Betancourt, homme politique cubain (° 10 février 1828).
-Mars
-7 mars : George William Ross, premier ministre de l'Ontario (° 18 septembre 1841).
+28 février : Salvador Cisneros Betancourt, homme politique cubain (° 10 février 1828).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1914</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1914</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>7 mars : George William Ross, premier ministre de l'Ontario (° 18 septembre 1841).
 15 mars : Albert Charles Lewis Günther herpétologiste et ichtyologiste britannique d'origine allemande (° 3 octobre 1830).
 16 mars : John Murray, océanographe canadien (° 3 mars 1841).
 25 mars : Frédéric Mistral, poète français (° 8 septembre 1830).
 27 mars : Joséphine Houssaye, peintre et lithographe française (° 25 décembre 1840).
 28 mars : Carlos María Herrera, peintre uruguayen (° 18 décembre 1875).
-31 mars : Hubert von Herkomer, peintre allemand (° 26 mai 1849).
-Avril
-2 avril : Daniel Koechlin, peintre français (° 4 décembre 1845).
+31 mars : Hubert von Herkomer, peintre allemand (° 26 mai 1849).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1914</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1914</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2 avril : Daniel Koechlin, peintre français (° 4 décembre 1845).
 3 avril : Alexis Marie Lahaye, peintre français (° 20 avril 1850).
 6 avril : Józef Chełmoński, peintre polonais (° 7 novembre 1849).
 12 avril : Lucien Poujade, violoniste, compositeur et chef d'orchestre français (° 3 mars 1847).
 23 avril : Jules Didier, peintre et lithographe français (° 26 mai 1831).
 25 avril : Émile Marchand, astronome et géophysicien français, directeur de l'observatoire du Pic du Midi (° 9 février 1852).
 26 avril : Eduard Suess, géologue autrichien (° 20 août 1831).
-29 avril : Alessandro Franchi, peintre italien (° 15 mars 1838).
-Mai
-2 mai : John Campbell, gouverneur général du Canada (° 6 août 1845).
-9 mai : Paul Héroult, scientifique français (° 10 avril 1863).
-Juin
-6 juin : Gabriel Ferrier, peintre français (° 29 septembre 1847).
+29 avril : Alessandro Franchi, peintre italien (° 15 mars 1838).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1914</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1914</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2 mai : John Campbell, gouverneur général du Canada (° 6 août 1845).
+9 mai : Paul Héroult, scientifique français (° 10 avril 1863).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1914</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1914</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>6 juin : Gabriel Ferrier, peintre français (° 29 septembre 1847).
 9 juin :
 Charles Giron, peintre et critique d'art suisse (° 24 janvier 1850).
 Johann Sobeck, clarinettiste et compositeur allemand (° 30 avril 1831).
@@ -582,9 +803,43 @@
 26 juin : Antonio Herrera Toro, peintre vénézuélien (° 26 janvier 1857).
 28 juin :
 François-Ferdinand, archiduc d'Autriche, héritier des couronnes impériale et royale d'Autriche-Hongrie (° 18 décembre 1863).
-Sophie Chotek de Chotkowa et Wognin, duchesse de Hohenberg, épouse du précédent (° 1er mars 1868).
-Juillet
-2 juillet : Joseph Chamberlain, homme d'État britannique (° 8 juillet 1836).
+Sophie Chotek de Chotkowa et Wognin, duchesse de Hohenberg, épouse du précédent (° 1er mars 1868).</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1914</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1914</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2 juillet : Joseph Chamberlain, homme d'État britannique (° 8 juillet 1836).
 4 juillet :
 Michele Catti, peintre italien (° 5 avril 1855).
 9 juillet : Henry Robert Emmerson, premier ministre du Nouveau-Brunswick (° 25 septembre 1853).
@@ -593,9 +848,43 @@
 27 juillet : Lucien d'Eaubonne, sculpteur, peintre et graveur en médailles français (° 26 août 1870).
 31 juillet :
 Jean Jaurès, philosophe, historien et théoricien socialiste (° 3 septembre 1859).
-Arabella Elizabeth Roupell, Illustratrice botanique anglaise (° 23 mars 1817).
-Août
-1er août : Gabriel Dupont, compositeur et musicien français (° 1er mars 1878).
+Arabella Elizabeth Roupell, Illustratrice botanique anglaise (° 23 mars 1817).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1914</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1914</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1er août : Gabriel Dupont, compositeur et musicien français (° 1er mars 1878).
 2 août : Jules André Peugeot, premier mort militaire français de la Première Guerre mondiale (° 11 juin 1893).
 6 août : Fritz Ramseyer, missionnaire protestant suisse (° 7 octobre 1840).
 7 août : Marcel Kerff, coureur cycliste belge (° 2 juin 1886).
@@ -609,9 +898,43 @@
 20 août : Pie X, né Giuseppe Melchiore Sarto, pape (° 2 juin 1835).
 23 août : Victorin Garaix, aviateur français de la Première Guerre mondiale (° 8 novembre 1890).
 28 août : Anatoli Liadov, compositeur et chef d'orchestre russe (° 11 mai 1855).
-31 août : Sherman Otis Houghton, homme politique américain (° 10 avril 1828).
-Septembre
-1er septembre : Frédéric Henri Wolff, premier soldat français fusillé pour l'exemple pendant la Première Guerre mondiale (° 4 juin 1869).
+31 août : Sherman Otis Houghton, homme politique américain (° 10 avril 1828).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1914</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1914</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1er septembre : Frédéric Henri Wolff, premier soldat français fusillé pour l'exemple pendant la Première Guerre mondiale (° 4 juin 1869).
 3 septembre :
 Ludwig Frank, avocat et homme politique allemand (° 23 mai 1874).
 Albéric Magnard, compositeur français (° 9 juin 1865).
@@ -623,23 +946,57 @@
 12 septembre : Victor Fastre, coureur cycliste belge (° 19 mai 1890).
 13 septembre : František Gellner, poète, écrivain, peintre, caricaturiste et anarchiste austro-hongrois (° 19 juin 1881).
 14 septembre : Émile Engel, coureur cycliste français (° 5 avril 1889).
-16 septembre : Louis Bach, footballeur français (° 14 avril 1883)[1].
+16 septembre : Louis Bach, footballeur français (° 14 avril 1883).
 17 septembre : Gaetano D'Agostino, peintre italien (° 16 mai 1837).
 18 septembre : Albert Kappis, peintre et lithographe allemand (° 20 août 1836).
 19 septembre : Georges Gass, peintre français (° 19 février 1885).
 20 septembre :
 Maurice Alexandre Berthon, peintre français (° 28 décembre 1888).
 Achille-Eugène Godefroy, peintre français (° 15 novembre 1882).
-22 septembre ou 26 septembre[2]  : Alain-Fournier, écrivain français (° 3 octobre 1886).
+22 septembre ou 26 septembre  : Alain-Fournier, écrivain français (° 3 octobre 1886).
 25 septembre : James Whitney, premier ministre de l'Ontario alors qu'il était en fonction (° 2 octobre 1843).
 26 septembre : August Macke, peintre allemand (° 3 janvier 1887).
 28 septembre :
 Robert Besnard, peintre et graveur français (° 1er juin 1881).
 Jean Bouin, athlète français, spécialiste de la course de fond (° 24 décembre 1888).
 Jean Destrem, peintre français (° 12 mai 1875).
-30 septembre : Yu Kil-chun, homme politique coréen (° 1856).
-Octobre
-3 octobre : Filipp Fortunatov, linguiste russe (° 14 janvier 1848).
+30 septembre : Yu Kil-chun, homme politique coréen (° 1856).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1914</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1914</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3 octobre : Filipp Fortunatov, linguiste russe (° 14 janvier 1848).
 6 octobre : Albert de Mun, homme politique français (° 28 février 1841).
 10 octobre :
 Domenico Ferrata, cardinal italien de la curie romaine (° 4 mars 1847).
@@ -653,15 +1010,83 @@
 19 octobre : Julio Argentino Roca, homme politique et militaire argentin (° 17 juillet 1843).
 20 octobre : Ismaël Gentz, peintre allemand (° 18 juin 1862).
 27 octobre : Félix Bracquemond, peintre, graveur et décorateur d'objets d'art français (° 28 mai 1833).
-28 octobre : Richard Heuberger, compositeur d'opéras et d'opérettes, critique musical et professeur autrichien (° 18 juin 1850).
-Novembre
-1er novembre : René Billotte, peintre français (° 24 juin 1846).
+28 octobre : Richard Heuberger, compositeur d'opéras et d'opérettes, critique musical et professeur autrichien (° 18 juin 1850).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1914</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1914</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1er novembre : René Billotte, peintre français (° 24 juin 1846).
 5 novembre :
 William Montagu-Douglas-Scott, homme politique britannique (° 9 septembre 1831).
 Amédée Rosier, peintre orientaliste français (° 20 août 1831).
-22 novembre : Henri Goussé, peintre, affichiste et illustrateur français (° 1er avril 1872).
-Décembre
-1er décembre :
+22 novembre : Henri Goussé, peintre, affichiste et illustrateur français (° 1er avril 1872).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1914</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1914</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1er décembre :
 François-Virgile Dubillard, cardinal français, archevêque de Chambéry (° 16 février 1845).
 Léon Gambey, peintre, dessinateur et illustrateur français (° 4 mars 1883).
 5 décembre : Hermann Stenner, peintre allemand (° 12 mars 1891).
